--- a/app/Dash_Logistica/kpis_luiz/planilha/WQ4 - Estoque Mercadorias Cliente WMS - cliente 1.xlsx
+++ b/app/Dash_Logistica/kpis_luiz/planilha/WQ4 - Estoque Mercadorias Cliente WMS - cliente 1.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hausz\Desktop\Projetos\2022\06_Junho\Backend_Flask\app\Dash_Logistica\kpis_luiz\planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FACC7D-4CE0-4A35-B4E5-A3A43DFF61D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DEA8B5-5884-4FE4-9D97-34E29A899314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WQ4 - Estoque Mercadorias Clien" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WQ4 - Estoque Mercadorias Clien'!$A$1:$R$453</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="926">
   <si>
     <t>Cód. Merc.</t>
   </si>
@@ -2798,9 +2801,6 @@
   </si>
   <si>
     <t>Monoporosa Hexa Dgr Lux 18X21 Sense</t>
-  </si>
-  <si>
-    <t>Totais</t>
   </si>
 </sst>
 </file>
@@ -3365,7 +3365,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3390,9 +3390,6 @@
     </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3752,10 +3749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R454"/>
+  <dimension ref="A1:R453"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="B448" sqref="B448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4265,7 +4262,7 @@
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
         <v>0</v>
@@ -5292,7 +5289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>76</v>
       </c>
@@ -27340,53 +27337,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="454" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="4"/>
-      <c r="B454" s="4"/>
-      <c r="C454" s="4"/>
-      <c r="D454" s="5"/>
-      <c r="E454" s="9" t="s">
-        <v>926</v>
-      </c>
-      <c r="F454" s="5"/>
-      <c r="G454" s="5">
-        <v>0</v>
-      </c>
-      <c r="H454" s="5">
-        <v>0</v>
-      </c>
-      <c r="I454" s="5">
-        <v>0</v>
-      </c>
-      <c r="J454" s="7">
-        <v>40418</v>
-      </c>
-      <c r="K454" s="5">
-        <v>0</v>
-      </c>
-      <c r="L454" s="7">
-        <v>40418</v>
-      </c>
-      <c r="M454" s="5">
-        <v>0</v>
-      </c>
-      <c r="N454" s="7">
-        <v>4541</v>
-      </c>
-      <c r="O454" s="7">
-        <v>4541</v>
-      </c>
-      <c r="P454" s="7">
-        <v>4146</v>
-      </c>
-      <c r="Q454" s="5">
-        <v>395</v>
-      </c>
-      <c r="R454" s="8">
-        <v>35877</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:R453" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/app/Dash_Logistica/kpis_luiz/planilha/WQ4 - Estoque Mercadorias Cliente WMS - cliente 1.xlsx
+++ b/app/Dash_Logistica/kpis_luiz/planilha/WQ4 - Estoque Mercadorias Cliente WMS - cliente 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hausz\Desktop\Projetos\2022\06_Junho\Backend_Flask\app\Dash_Logistica\kpis_luiz\planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52750662-FD39-4DA7-B4B0-A24564A4BE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1A2FB7-C90F-4924-AD04-CAF88765D777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="914">
   <si>
     <t>Cód. Merc.</t>
   </si>
@@ -1564,12 +1564,6 @@
     <t>Porcelanato Wood Decor Hd 50X100,7 Itagres</t>
   </si>
   <si>
-    <t>25031A</t>
-  </si>
-  <si>
-    <t>Porcelanato Cemento D Oro Ac 50X100,7 Itagres</t>
-  </si>
-  <si>
     <t>25032A</t>
   </si>
   <si>
@@ -1708,12 +1702,6 @@
     <t>Revestimento Parede Brilho Cristal Branco 256X65 Extra Pierini</t>
   </si>
   <si>
-    <t>300001L</t>
-  </si>
-  <si>
-    <t>Porcelanato LEVEL Travertino Royal Bianco 100X100 Natural Level</t>
-  </si>
-  <si>
     <t>300005L</t>
   </si>
   <si>
@@ -1954,18 +1942,6 @@
     <t>Porcelanato Legno Hd 30X120 Itagres</t>
   </si>
   <si>
-    <t>5002471A</t>
-  </si>
-  <si>
-    <t>Azulejo Blanchê Quitan 40x90cm RET Monocromatico Acetinado Ceusa</t>
-  </si>
-  <si>
-    <t>5002655A</t>
-  </si>
-  <si>
-    <t>Azulejo Azul 40x90cm RET Monocromatico Acetinado Ceusa</t>
-  </si>
-  <si>
     <t>5008140A</t>
   </si>
   <si>
@@ -2002,12 +1978,6 @@
     <t>Porcelanato Gran Calacata Gold 62x120 Acetinado Piso/Parede LD Embramaco</t>
   </si>
   <si>
-    <t>6055360A</t>
-  </si>
-  <si>
-    <t>Azulejo White Plain 30x60cm Bold Monocromatico Matte Portinari</t>
-  </si>
-  <si>
     <t>6057719A</t>
   </si>
   <si>
@@ -2032,12 +2002,6 @@
     <t>Porcelanato Onice BK 60X120 cm RET Mármore Polido Portinari</t>
   </si>
   <si>
-    <t>6060099A</t>
-  </si>
-  <si>
-    <t>Porcelanato Rima BK 20x20cm Monocromatico Matte Portinari</t>
-  </si>
-  <si>
     <t>6060240A</t>
   </si>
   <si>
@@ -2050,12 +2014,6 @@
     <t>Porcelanato Tavola Decor NO 60X60cm RET Madeira Natural Portinari</t>
   </si>
   <si>
-    <t>6060567A</t>
-  </si>
-  <si>
-    <t>Porcelanato Opera Covelano 60x120cm RET Mármore Polido Portinari</t>
-  </si>
-  <si>
     <t>6060568A</t>
   </si>
   <si>
@@ -2234,12 +2192,6 @@
   </si>
   <si>
     <t>Porcelanato Quebec Dark Grey 61x61cm Acetinado Gaudi</t>
-  </si>
-  <si>
-    <t>80421</t>
-  </si>
-  <si>
-    <t>Porcelanato Bianco 61x61cm Acetinado Gaudi</t>
   </si>
   <si>
     <t>80431</t>
@@ -3747,32 +3699,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R455"/>
+  <dimension ref="A1:R447"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="D442" sqref="D442"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="A447" sqref="A447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4076,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="N6" s="5">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="O6" s="5">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="P6" s="5">
         <v>25</v>
       </c>
       <c r="Q6" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R6" s="6">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4388,19 +4340,19 @@
         <v>0</v>
       </c>
       <c r="N12" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O12" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P12" s="5">
         <v>6</v>
       </c>
       <c r="Q12" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R12" s="6">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5896,19 +5848,19 @@
         <v>0</v>
       </c>
       <c r="N41" s="5">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="O41" s="5">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="P41" s="5">
         <v>29</v>
       </c>
       <c r="Q41" s="5">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="R41" s="6">
-        <v>341</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6416,19 +6368,19 @@
         <v>0</v>
       </c>
       <c r="N51" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O51" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P51" s="5">
         <v>0</v>
       </c>
       <c r="Q51" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R51" s="6">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6676,19 +6628,19 @@
         <v>0</v>
       </c>
       <c r="N56" s="5">
-        <v>2</v>
+        <v>307</v>
       </c>
       <c r="O56" s="5">
-        <v>2</v>
+        <v>307</v>
       </c>
       <c r="P56" s="5">
         <v>2</v>
       </c>
       <c r="Q56" s="5">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="R56" s="6">
-        <v>362</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6820,25 +6772,25 @@
         <v>0</v>
       </c>
       <c r="J59" s="5">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K59" s="5">
         <v>0</v>
       </c>
       <c r="L59" s="5">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M59" s="5">
         <v>0</v>
       </c>
       <c r="N59" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O59" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P59" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="5">
         <v>0</v>
@@ -6976,25 +6928,25 @@
         <v>0</v>
       </c>
       <c r="J62" s="5">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="K62" s="5">
         <v>0</v>
       </c>
       <c r="L62" s="5">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="M62" s="5">
         <v>0</v>
       </c>
       <c r="N62" s="5">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="O62" s="5">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="P62" s="5">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="Q62" s="5">
         <v>12</v>
@@ -7404,19 +7356,19 @@
         <v>0</v>
       </c>
       <c r="N70" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O70" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P70" s="5">
         <v>0</v>
       </c>
       <c r="Q70" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R70" s="6">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7872,19 +7824,19 @@
         <v>0</v>
       </c>
       <c r="N79" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O79" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P79" s="5">
         <v>4</v>
       </c>
       <c r="Q79" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79" s="6">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7964,31 +7916,31 @@
         <v>0</v>
       </c>
       <c r="J81" s="7">
-        <v>1529</v>
+        <v>1458</v>
       </c>
       <c r="K81" s="5">
         <v>0</v>
       </c>
       <c r="L81" s="7">
-        <v>1529</v>
+        <v>1458</v>
       </c>
       <c r="M81" s="5">
         <v>0</v>
       </c>
       <c r="N81" s="5">
-        <v>937</v>
+        <v>905</v>
       </c>
       <c r="O81" s="5">
-        <v>937</v>
+        <v>905</v>
       </c>
       <c r="P81" s="5">
-        <v>937</v>
+        <v>866</v>
       </c>
       <c r="Q81" s="5">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="R81" s="6">
-        <v>592</v>
+        <v>553</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8016,25 +7968,25 @@
         <v>0</v>
       </c>
       <c r="J82" s="5">
-        <v>433</v>
+        <v>374</v>
       </c>
       <c r="K82" s="5">
         <v>0</v>
       </c>
       <c r="L82" s="5">
-        <v>433</v>
+        <v>374</v>
       </c>
       <c r="M82" s="5">
         <v>0</v>
       </c>
       <c r="N82" s="5">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="O82" s="5">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="P82" s="5">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="Q82" s="5">
         <v>0</v>
@@ -8080,19 +8032,19 @@
         <v>0</v>
       </c>
       <c r="N83" s="5">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O83" s="5">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P83" s="5">
         <v>0</v>
       </c>
       <c r="Q83" s="5">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R83" s="6">
-        <v>579</v>
+        <v>558</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8172,31 +8124,31 @@
         <v>0</v>
       </c>
       <c r="J85" s="5">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="K85" s="5">
         <v>0</v>
       </c>
       <c r="L85" s="5">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="M85" s="5">
         <v>0</v>
       </c>
       <c r="N85" s="5">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="O85" s="5">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="P85" s="5">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="Q85" s="5">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="R85" s="6">
-        <v>446</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8224,25 +8176,25 @@
         <v>0</v>
       </c>
       <c r="J86" s="5">
-        <v>536</v>
+        <v>412</v>
       </c>
       <c r="K86" s="5">
         <v>0</v>
       </c>
       <c r="L86" s="5">
-        <v>536</v>
+        <v>412</v>
       </c>
       <c r="M86" s="5">
         <v>0</v>
       </c>
       <c r="N86" s="5">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="O86" s="5">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="P86" s="5">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="Q86" s="5">
         <v>22</v>
@@ -8848,25 +8800,25 @@
         <v>0</v>
       </c>
       <c r="J98" s="5">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K98" s="5">
         <v>0</v>
       </c>
       <c r="L98" s="5">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M98" s="5">
         <v>0</v>
       </c>
       <c r="N98" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O98" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P98" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q98" s="5">
         <v>0</v>
@@ -9004,31 +8956,31 @@
         <v>0</v>
       </c>
       <c r="J101" s="5">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="K101" s="5">
         <v>0</v>
       </c>
       <c r="L101" s="5">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="M101" s="5">
         <v>0</v>
       </c>
       <c r="N101" s="5">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="O101" s="5">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="P101" s="5">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="Q101" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R101" s="6">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9576,25 +9528,25 @@
         <v>0</v>
       </c>
       <c r="J112" s="5">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="K112" s="5">
         <v>0</v>
       </c>
       <c r="L112" s="5">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="M112" s="5">
         <v>0</v>
       </c>
       <c r="N112" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O112" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P112" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q112" s="5">
         <v>0</v>
@@ -9640,19 +9592,19 @@
         <v>0</v>
       </c>
       <c r="N113" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O113" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P113" s="5">
         <v>0</v>
       </c>
       <c r="Q113" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R113" s="6">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9680,25 +9632,25 @@
         <v>0</v>
       </c>
       <c r="J114" s="5">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K114" s="5">
         <v>0</v>
       </c>
       <c r="L114" s="5">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="M114" s="5">
         <v>0</v>
       </c>
       <c r="N114" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O114" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P114" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q114" s="5">
         <v>0</v>
@@ -9900,19 +9852,19 @@
         <v>0</v>
       </c>
       <c r="N118" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O118" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P118" s="5">
         <v>0</v>
       </c>
       <c r="Q118" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R118" s="6">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10200,25 +10152,25 @@
         <v>0</v>
       </c>
       <c r="J124" s="5">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K124" s="5">
         <v>0</v>
       </c>
       <c r="L124" s="5">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="M124" s="5">
         <v>0</v>
       </c>
       <c r="N124" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O124" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P124" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q124" s="5">
         <v>0</v>
@@ -10680,19 +10632,19 @@
         <v>0</v>
       </c>
       <c r="N133" s="5">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O133" s="5">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="P133" s="5">
         <v>47</v>
       </c>
       <c r="Q133" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R133" s="6">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10836,19 +10788,19 @@
         <v>0</v>
       </c>
       <c r="N136" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O136" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P136" s="5">
         <v>0</v>
       </c>
       <c r="Q136" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R136" s="6">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12500,19 +12452,19 @@
         <v>0</v>
       </c>
       <c r="N168" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O168" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P168" s="5">
         <v>0</v>
       </c>
       <c r="Q168" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R168" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14152,25 +14104,25 @@
         <v>0</v>
       </c>
       <c r="J200" s="5">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K200" s="5">
         <v>0</v>
       </c>
       <c r="L200" s="5">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M200" s="5">
         <v>0</v>
       </c>
       <c r="N200" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O200" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P200" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q200" s="5">
         <v>0</v>
@@ -14204,25 +14156,25 @@
         <v>0</v>
       </c>
       <c r="J201" s="5">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K201" s="5">
         <v>0</v>
       </c>
       <c r="L201" s="5">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M201" s="5">
         <v>0</v>
       </c>
       <c r="N201" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O201" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P201" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q201" s="5">
         <v>0</v>
@@ -14256,25 +14208,25 @@
         <v>0</v>
       </c>
       <c r="J202" s="5">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K202" s="5">
         <v>0</v>
       </c>
       <c r="L202" s="5">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M202" s="5">
         <v>0</v>
       </c>
       <c r="N202" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O202" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P202" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q202" s="5">
         <v>0</v>
@@ -14464,13 +14416,13 @@
         <v>0</v>
       </c>
       <c r="J206" s="5">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K206" s="5">
         <v>0</v>
       </c>
       <c r="L206" s="5">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M206" s="5">
         <v>0</v>
@@ -14482,13 +14434,13 @@
         <v>2</v>
       </c>
       <c r="P206" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q206" s="5">
         <v>2</v>
       </c>
-      <c r="Q206" s="5">
-        <v>0</v>
-      </c>
       <c r="R206" s="6">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15192,25 +15144,25 @@
         <v>0</v>
       </c>
       <c r="J220" s="5">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="K220" s="5">
         <v>0</v>
       </c>
       <c r="L220" s="5">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="M220" s="5">
         <v>0</v>
       </c>
       <c r="N220" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O220" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P220" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q220" s="5">
         <v>0</v>
@@ -15244,31 +15196,31 @@
         <v>0</v>
       </c>
       <c r="J221" s="5">
-        <v>302</v>
+        <v>49</v>
       </c>
       <c r="K221" s="5">
         <v>0</v>
       </c>
       <c r="L221" s="5">
-        <v>302</v>
+        <v>49</v>
       </c>
       <c r="M221" s="5">
         <v>0</v>
       </c>
       <c r="N221" s="5">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="O221" s="5">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="P221" s="5">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="Q221" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R221" s="6">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="222" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15556,25 +15508,25 @@
         <v>0</v>
       </c>
       <c r="J227" s="5">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K227" s="5">
         <v>0</v>
       </c>
       <c r="L227" s="5">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M227" s="5">
         <v>0</v>
       </c>
       <c r="N227" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O227" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P227" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q227" s="5">
         <v>4</v>
@@ -15764,25 +15716,25 @@
         <v>0</v>
       </c>
       <c r="J231" s="5">
-        <v>647</v>
+        <v>594</v>
       </c>
       <c r="K231" s="5">
         <v>0</v>
       </c>
       <c r="L231" s="5">
-        <v>647</v>
+        <v>594</v>
       </c>
       <c r="M231" s="5">
         <v>0</v>
       </c>
       <c r="N231" s="5">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="O231" s="5">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="P231" s="5">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="Q231" s="5">
         <v>0</v>
@@ -16180,31 +16132,31 @@
         <v>0</v>
       </c>
       <c r="J239" s="5">
-        <v>682</v>
+        <v>598</v>
       </c>
       <c r="K239" s="5">
         <v>0</v>
       </c>
       <c r="L239" s="5">
-        <v>682</v>
+        <v>598</v>
       </c>
       <c r="M239" s="5">
         <v>0</v>
       </c>
       <c r="N239" s="5">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="O239" s="5">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="P239" s="5">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="Q239" s="5">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="R239" s="6">
-        <v>575</v>
+        <v>558</v>
       </c>
     </row>
     <row r="240" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16284,25 +16236,25 @@
         <v>0</v>
       </c>
       <c r="J241" s="5">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="K241" s="5">
         <v>0</v>
       </c>
       <c r="L241" s="5">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="M241" s="5">
         <v>0</v>
       </c>
       <c r="N241" s="5">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="O241" s="5">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="P241" s="5">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="Q241" s="5">
         <v>0</v>
@@ -16596,13 +16548,13 @@
         <v>0</v>
       </c>
       <c r="J247" s="5">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="K247" s="5">
         <v>0</v>
       </c>
       <c r="L247" s="5">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="M247" s="5">
         <v>0</v>
@@ -16614,13 +16566,13 @@
         <v>20</v>
       </c>
       <c r="P247" s="5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q247" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R247" s="6">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="248" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16648,31 +16600,31 @@
         <v>0</v>
       </c>
       <c r="J248" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K248" s="5">
         <v>0</v>
       </c>
       <c r="L248" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M248" s="5">
         <v>0</v>
       </c>
       <c r="N248" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O248" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P248" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q248" s="5">
         <v>0</v>
       </c>
       <c r="R248" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16700,31 +16652,31 @@
         <v>0</v>
       </c>
       <c r="J249" s="5">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="K249" s="5">
         <v>0</v>
       </c>
       <c r="L249" s="5">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="M249" s="5">
         <v>0</v>
       </c>
       <c r="N249" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O249" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P249" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q249" s="5">
         <v>0</v>
       </c>
       <c r="R249" s="6">
-        <v>4</v>
+        <v>136</v>
       </c>
     </row>
     <row r="250" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16752,31 +16704,31 @@
         <v>0</v>
       </c>
       <c r="J250" s="5">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="K250" s="5">
         <v>0</v>
       </c>
       <c r="L250" s="5">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="M250" s="5">
         <v>0</v>
       </c>
       <c r="N250" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O250" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P250" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q250" s="5">
         <v>0</v>
       </c>
       <c r="R250" s="6">
-        <v>136</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16804,31 +16756,31 @@
         <v>0</v>
       </c>
       <c r="J251" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K251" s="5">
         <v>0</v>
       </c>
       <c r="L251" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M251" s="5">
         <v>0</v>
       </c>
       <c r="N251" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O251" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P251" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q251" s="5">
         <v>0</v>
       </c>
       <c r="R251" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16856,31 +16808,31 @@
         <v>0</v>
       </c>
       <c r="J252" s="5">
-        <v>7</v>
+        <v>231</v>
       </c>
       <c r="K252" s="5">
         <v>0</v>
       </c>
       <c r="L252" s="5">
-        <v>7</v>
+        <v>231</v>
       </c>
       <c r="M252" s="5">
         <v>0</v>
       </c>
       <c r="N252" s="5">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="O252" s="5">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="P252" s="5">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="Q252" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R252" s="6">
-        <v>2</v>
+        <v>175</v>
       </c>
     </row>
     <row r="253" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16908,31 +16860,31 @@
         <v>0</v>
       </c>
       <c r="J253" s="5">
-        <v>232</v>
+        <v>3</v>
       </c>
       <c r="K253" s="5">
         <v>0</v>
       </c>
       <c r="L253" s="5">
-        <v>232</v>
+        <v>3</v>
       </c>
       <c r="M253" s="5">
         <v>0</v>
       </c>
       <c r="N253" s="5">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="O253" s="5">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="P253" s="5">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="Q253" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R253" s="6">
-        <v>180</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16960,13 +16912,13 @@
         <v>0</v>
       </c>
       <c r="J254" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K254" s="5">
         <v>0</v>
       </c>
       <c r="L254" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M254" s="5">
         <v>0</v>
@@ -16984,7 +16936,7 @@
         <v>0</v>
       </c>
       <c r="R254" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17064,13 +17016,13 @@
         <v>0</v>
       </c>
       <c r="J256" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K256" s="5">
         <v>0</v>
       </c>
       <c r="L256" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M256" s="5">
         <v>0</v>
@@ -17088,10 +17040,10 @@
         <v>0</v>
       </c>
       <c r="R256" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>532</v>
       </c>
@@ -17099,7 +17051,7 @@
         <v>533</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="D257" s="5">
         <v>1</v>
@@ -17116,13 +17068,13 @@
         <v>0</v>
       </c>
       <c r="J257" s="5">
-        <v>4</v>
+        <v>419</v>
       </c>
       <c r="K257" s="5">
         <v>0</v>
       </c>
       <c r="L257" s="5">
-        <v>4</v>
+        <v>419</v>
       </c>
       <c r="M257" s="5">
         <v>0</v>
@@ -17140,7 +17092,7 @@
         <v>0</v>
       </c>
       <c r="R257" s="6">
-        <v>4</v>
+        <v>419</v>
       </c>
     </row>
     <row r="258" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -17168,34 +17120,34 @@
         <v>0</v>
       </c>
       <c r="J258" s="5">
-        <v>420</v>
+        <v>144</v>
       </c>
       <c r="K258" s="5">
         <v>0</v>
       </c>
       <c r="L258" s="5">
-        <v>420</v>
+        <v>144</v>
       </c>
       <c r="M258" s="5">
         <v>0</v>
       </c>
       <c r="N258" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O258" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P258" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q258" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R258" s="6">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="259" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>536</v>
       </c>
@@ -17203,7 +17155,7 @@
         <v>537</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D259" s="5">
         <v>1</v>
@@ -17220,31 +17172,31 @@
         <v>0</v>
       </c>
       <c r="J259" s="5">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="K259" s="5">
         <v>0</v>
       </c>
       <c r="L259" s="5">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="M259" s="5">
         <v>0</v>
       </c>
       <c r="N259" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O259" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P259" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q259" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R259" s="6">
-        <v>134</v>
+        <v>240</v>
       </c>
     </row>
     <row r="260" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17272,31 +17224,31 @@
         <v>0</v>
       </c>
       <c r="J260" s="5">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="K260" s="5">
         <v>0</v>
       </c>
       <c r="L260" s="5">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="M260" s="5">
         <v>0</v>
       </c>
       <c r="N260" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O260" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P260" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q260" s="5">
         <v>0</v>
       </c>
       <c r="R260" s="6">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17324,31 +17276,31 @@
         <v>0</v>
       </c>
       <c r="J261" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K261" s="5">
         <v>0</v>
       </c>
       <c r="L261" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M261" s="5">
         <v>0</v>
       </c>
       <c r="N261" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O261" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P261" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q261" s="5">
         <v>0</v>
       </c>
       <c r="R261" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="262" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17376,13 +17328,13 @@
         <v>0</v>
       </c>
       <c r="J262" s="5">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="K262" s="5">
         <v>0</v>
       </c>
       <c r="L262" s="5">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="M262" s="5">
         <v>0</v>
@@ -17400,7 +17352,7 @@
         <v>0</v>
       </c>
       <c r="R262" s="6">
-        <v>15</v>
+        <v>98</v>
       </c>
     </row>
     <row r="263" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17428,31 +17380,31 @@
         <v>0</v>
       </c>
       <c r="J263" s="5">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="K263" s="5">
         <v>0</v>
       </c>
       <c r="L263" s="5">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="M263" s="5">
         <v>0</v>
       </c>
       <c r="N263" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O263" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P263" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q263" s="5">
         <v>0</v>
       </c>
       <c r="R263" s="6">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17480,31 +17432,31 @@
         <v>0</v>
       </c>
       <c r="J264" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K264" s="5">
         <v>0</v>
       </c>
       <c r="L264" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M264" s="5">
         <v>0</v>
       </c>
       <c r="N264" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O264" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P264" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q264" s="5">
         <v>0</v>
       </c>
       <c r="R264" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17532,28 +17484,28 @@
         <v>0</v>
       </c>
       <c r="J265" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K265" s="5">
         <v>0</v>
       </c>
       <c r="L265" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M265" s="5">
         <v>0</v>
       </c>
       <c r="N265" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O265" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P265" s="5">
         <v>0</v>
       </c>
       <c r="Q265" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R265" s="6">
         <v>1</v>
@@ -17584,31 +17536,31 @@
         <v>0</v>
       </c>
       <c r="J266" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K266" s="5">
         <v>0</v>
       </c>
       <c r="L266" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M266" s="5">
         <v>0</v>
       </c>
       <c r="N266" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O266" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P266" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q266" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R266" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17636,25 +17588,25 @@
         <v>0</v>
       </c>
       <c r="J267" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K267" s="5">
         <v>0</v>
       </c>
       <c r="L267" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M267" s="5">
         <v>0</v>
       </c>
       <c r="N267" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O267" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P267" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q267" s="5">
         <v>0</v>
@@ -17688,31 +17640,31 @@
         <v>0</v>
       </c>
       <c r="J268" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K268" s="5">
         <v>0</v>
       </c>
       <c r="L268" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M268" s="5">
         <v>0</v>
       </c>
       <c r="N268" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O268" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P268" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q268" s="5">
         <v>0</v>
       </c>
       <c r="R268" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17740,13 +17692,13 @@
         <v>0</v>
       </c>
       <c r="J269" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K269" s="5">
         <v>0</v>
       </c>
       <c r="L269" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M269" s="5">
         <v>0</v>
@@ -17764,10 +17716,10 @@
         <v>0</v>
       </c>
       <c r="R269" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="270" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>558</v>
       </c>
@@ -17792,13 +17744,13 @@
         <v>0</v>
       </c>
       <c r="J270" s="5">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="K270" s="5">
         <v>0</v>
       </c>
       <c r="L270" s="5">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="M270" s="5">
         <v>0</v>
@@ -17816,7 +17768,7 @@
         <v>0</v>
       </c>
       <c r="R270" s="6">
-        <v>1</v>
+        <v>172</v>
       </c>
     </row>
     <row r="271" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -17844,31 +17796,31 @@
         <v>0</v>
       </c>
       <c r="J271" s="5">
-        <v>172</v>
+        <v>751</v>
       </c>
       <c r="K271" s="5">
         <v>0</v>
       </c>
       <c r="L271" s="5">
-        <v>172</v>
+        <v>751</v>
       </c>
       <c r="M271" s="5">
         <v>0</v>
       </c>
       <c r="N271" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O271" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P271" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q271" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R271" s="6">
-        <v>172</v>
+        <v>746</v>
       </c>
     </row>
     <row r="272" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -17896,31 +17848,31 @@
         <v>0</v>
       </c>
       <c r="J272" s="5">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="K272" s="5">
         <v>0</v>
       </c>
       <c r="L272" s="5">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="M272" s="5">
         <v>0</v>
       </c>
       <c r="N272" s="5">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="O272" s="5">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="P272" s="5">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="Q272" s="5">
         <v>0</v>
       </c>
       <c r="R272" s="6">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="273" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -17948,31 +17900,31 @@
         <v>0</v>
       </c>
       <c r="J273" s="5">
-        <v>751</v>
+        <v>7</v>
       </c>
       <c r="K273" s="5">
         <v>0</v>
       </c>
       <c r="L273" s="5">
-        <v>751</v>
+        <v>7</v>
       </c>
       <c r="M273" s="5">
         <v>0</v>
       </c>
       <c r="N273" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O273" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P273" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q273" s="5">
         <v>0</v>
       </c>
       <c r="R273" s="6">
-        <v>747</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18000,31 +17952,31 @@
         <v>0</v>
       </c>
       <c r="J274" s="5">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="K274" s="5">
         <v>0</v>
       </c>
       <c r="L274" s="5">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="M274" s="5">
         <v>0</v>
       </c>
       <c r="N274" s="5">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="O274" s="5">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="P274" s="5">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Q274" s="5">
         <v>0</v>
       </c>
       <c r="R274" s="6">
-        <v>72</v>
+        <v>124</v>
       </c>
     </row>
     <row r="275" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18052,13 +18004,13 @@
         <v>0</v>
       </c>
       <c r="J275" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K275" s="5">
         <v>0</v>
       </c>
       <c r="L275" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M275" s="5">
         <v>0</v>
@@ -18076,7 +18028,7 @@
         <v>0</v>
       </c>
       <c r="R275" s="6">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18104,31 +18056,31 @@
         <v>0</v>
       </c>
       <c r="J276" s="5">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="K276" s="5">
         <v>0</v>
       </c>
       <c r="L276" s="5">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="M276" s="5">
         <v>0</v>
       </c>
       <c r="N276" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O276" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P276" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q276" s="5">
         <v>0</v>
       </c>
       <c r="R276" s="6">
-        <v>124</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18156,13 +18108,13 @@
         <v>0</v>
       </c>
       <c r="J277" s="5">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K277" s="5">
         <v>0</v>
       </c>
       <c r="L277" s="5">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M277" s="5">
         <v>0</v>
@@ -18180,10 +18132,10 @@
         <v>0</v>
       </c>
       <c r="R277" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="278" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>574</v>
       </c>
@@ -18208,13 +18160,13 @@
         <v>0</v>
       </c>
       <c r="J278" s="5">
-        <v>8</v>
+        <v>377</v>
       </c>
       <c r="K278" s="5">
         <v>0</v>
       </c>
       <c r="L278" s="5">
-        <v>8</v>
+        <v>377</v>
       </c>
       <c r="M278" s="5">
         <v>0</v>
@@ -18232,7 +18184,7 @@
         <v>0</v>
       </c>
       <c r="R278" s="6">
-        <v>8</v>
+        <v>377</v>
       </c>
     </row>
     <row r="279" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18260,13 +18212,13 @@
         <v>0</v>
       </c>
       <c r="J279" s="5">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K279" s="5">
         <v>0</v>
       </c>
       <c r="L279" s="5">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="M279" s="5">
         <v>0</v>
@@ -18284,10 +18236,10 @@
         <v>0</v>
       </c>
       <c r="R279" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="280" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>578</v>
       </c>
@@ -18312,13 +18264,13 @@
         <v>0</v>
       </c>
       <c r="J280" s="5">
-        <v>377</v>
+        <v>6</v>
       </c>
       <c r="K280" s="5">
         <v>0</v>
       </c>
       <c r="L280" s="5">
-        <v>377</v>
+        <v>6</v>
       </c>
       <c r="M280" s="5">
         <v>0</v>
@@ -18336,7 +18288,7 @@
         <v>0</v>
       </c>
       <c r="R280" s="6">
-        <v>377</v>
+        <v>6</v>
       </c>
     </row>
     <row r="281" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18364,13 +18316,13 @@
         <v>0</v>
       </c>
       <c r="J281" s="5">
-        <v>4</v>
+        <v>512</v>
       </c>
       <c r="K281" s="5">
         <v>0</v>
       </c>
       <c r="L281" s="5">
-        <v>4</v>
+        <v>512</v>
       </c>
       <c r="M281" s="5">
         <v>0</v>
@@ -18388,7 +18340,7 @@
         <v>0</v>
       </c>
       <c r="R281" s="6">
-        <v>4</v>
+        <v>512</v>
       </c>
     </row>
     <row r="282" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18416,13 +18368,13 @@
         <v>0</v>
       </c>
       <c r="J282" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K282" s="5">
         <v>0</v>
       </c>
       <c r="L282" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M282" s="5">
         <v>0</v>
@@ -18440,10 +18392,10 @@
         <v>0</v>
       </c>
       <c r="R282" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="283" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>584</v>
       </c>
@@ -18468,31 +18420,31 @@
         <v>0</v>
       </c>
       <c r="J283" s="5">
-        <v>512</v>
+        <v>18</v>
       </c>
       <c r="K283" s="5">
         <v>0</v>
       </c>
       <c r="L283" s="5">
-        <v>512</v>
+        <v>18</v>
       </c>
       <c r="M283" s="5">
         <v>0</v>
       </c>
       <c r="N283" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O283" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P283" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q283" s="5">
         <v>0</v>
       </c>
       <c r="R283" s="6">
-        <v>512</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18520,13 +18472,13 @@
         <v>0</v>
       </c>
       <c r="J284" s="5">
-        <v>3</v>
+        <v>466</v>
       </c>
       <c r="K284" s="5">
         <v>0</v>
       </c>
       <c r="L284" s="5">
-        <v>3</v>
+        <v>466</v>
       </c>
       <c r="M284" s="5">
         <v>0</v>
@@ -18544,10 +18496,10 @@
         <v>0</v>
       </c>
       <c r="R284" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="285" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>588</v>
       </c>
@@ -18572,31 +18524,31 @@
         <v>0</v>
       </c>
       <c r="J285" s="5">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K285" s="5">
         <v>0</v>
       </c>
       <c r="L285" s="5">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M285" s="5">
         <v>0</v>
       </c>
       <c r="N285" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O285" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P285" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q285" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R285" s="6">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="286" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18624,31 +18576,31 @@
         <v>0</v>
       </c>
       <c r="J286" s="5">
-        <v>484</v>
+        <v>16</v>
       </c>
       <c r="K286" s="5">
         <v>0</v>
       </c>
       <c r="L286" s="5">
-        <v>484</v>
+        <v>16</v>
       </c>
       <c r="M286" s="5">
         <v>0</v>
       </c>
       <c r="N286" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O286" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P286" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q286" s="5">
         <v>0</v>
       </c>
       <c r="R286" s="6">
-        <v>466</v>
+        <v>16</v>
       </c>
     </row>
     <row r="287" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18676,31 +18628,31 @@
         <v>0</v>
       </c>
       <c r="J287" s="5">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K287" s="5">
         <v>0</v>
       </c>
       <c r="L287" s="5">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M287" s="5">
         <v>0</v>
       </c>
       <c r="N287" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O287" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P287" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q287" s="5">
         <v>0</v>
       </c>
       <c r="R287" s="6">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="288" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18728,13 +18680,13 @@
         <v>0</v>
       </c>
       <c r="J288" s="5">
-        <v>16</v>
+        <v>434</v>
       </c>
       <c r="K288" s="5">
         <v>0</v>
       </c>
       <c r="L288" s="5">
-        <v>16</v>
+        <v>434</v>
       </c>
       <c r="M288" s="5">
         <v>0</v>
@@ -18752,7 +18704,7 @@
         <v>0</v>
       </c>
       <c r="R288" s="6">
-        <v>16</v>
+        <v>434</v>
       </c>
     </row>
     <row r="289" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18780,31 +18732,31 @@
         <v>0</v>
       </c>
       <c r="J289" s="5">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="K289" s="5">
         <v>0</v>
       </c>
       <c r="L289" s="5">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="M289" s="5">
         <v>0</v>
       </c>
       <c r="N289" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O289" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P289" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q289" s="5">
         <v>0</v>
       </c>
       <c r="R289" s="6">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18832,13 +18784,13 @@
         <v>0</v>
       </c>
       <c r="J290" s="5">
-        <v>434</v>
+        <v>24</v>
       </c>
       <c r="K290" s="5">
         <v>0</v>
       </c>
       <c r="L290" s="5">
-        <v>434</v>
+        <v>24</v>
       </c>
       <c r="M290" s="5">
         <v>0</v>
@@ -18856,7 +18808,7 @@
         <v>0</v>
       </c>
       <c r="R290" s="6">
-        <v>434</v>
+        <v>24</v>
       </c>
     </row>
     <row r="291" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18883,32 +18835,32 @@
       <c r="I291" s="5">
         <v>0</v>
       </c>
-      <c r="J291" s="5">
-        <v>5</v>
+      <c r="J291" s="7">
+        <v>1406</v>
       </c>
       <c r="K291" s="5">
         <v>0</v>
       </c>
-      <c r="L291" s="5">
-        <v>5</v>
+      <c r="L291" s="7">
+        <v>1406</v>
       </c>
       <c r="M291" s="5">
         <v>0</v>
       </c>
       <c r="N291" s="5">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O291" s="5">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="P291" s="5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q291" s="5">
-        <v>0</v>
-      </c>
-      <c r="R291" s="6">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="R291" s="8">
+        <v>1369</v>
       </c>
     </row>
     <row r="292" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18936,13 +18888,13 @@
         <v>0</v>
       </c>
       <c r="J292" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K292" s="5">
         <v>0</v>
       </c>
       <c r="L292" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M292" s="5">
         <v>0</v>
@@ -18960,10 +18912,10 @@
         <v>0</v>
       </c>
       <c r="R292" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="293" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>604</v>
       </c>
@@ -18987,35 +18939,35 @@
       <c r="I293" s="5">
         <v>0</v>
       </c>
-      <c r="J293" s="7">
-        <v>1406</v>
+      <c r="J293" s="5">
+        <v>2</v>
       </c>
       <c r="K293" s="5">
         <v>0</v>
       </c>
-      <c r="L293" s="7">
-        <v>1406</v>
+      <c r="L293" s="5">
+        <v>2</v>
       </c>
       <c r="M293" s="5">
         <v>0</v>
       </c>
       <c r="N293" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O293" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P293" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q293" s="5">
         <v>0</v>
       </c>
-      <c r="R293" s="8">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="294" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R293" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>606</v>
       </c>
@@ -19040,13 +18992,13 @@
         <v>0</v>
       </c>
       <c r="J294" s="5">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K294" s="5">
         <v>0</v>
       </c>
       <c r="L294" s="5">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M294" s="5">
         <v>0</v>
@@ -19064,7 +19016,7 @@
         <v>0</v>
       </c>
       <c r="R294" s="6">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="295" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19092,31 +19044,31 @@
         <v>0</v>
       </c>
       <c r="J295" s="5">
-        <v>2</v>
+        <v>199</v>
       </c>
       <c r="K295" s="5">
         <v>0</v>
       </c>
       <c r="L295" s="5">
-        <v>2</v>
+        <v>199</v>
       </c>
       <c r="M295" s="5">
         <v>0</v>
       </c>
       <c r="N295" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O295" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P295" s="5">
         <v>0</v>
       </c>
       <c r="Q295" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R295" s="6">
-        <v>2</v>
+        <v>190</v>
       </c>
     </row>
     <row r="296" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19144,31 +19096,31 @@
         <v>0</v>
       </c>
       <c r="J296" s="5">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="K296" s="5">
         <v>0</v>
       </c>
       <c r="L296" s="5">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="M296" s="5">
         <v>0</v>
       </c>
       <c r="N296" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O296" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P296" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q296" s="5">
         <v>0</v>
       </c>
       <c r="R296" s="6">
-        <v>31</v>
+        <v>134</v>
       </c>
     </row>
     <row r="297" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19196,31 +19148,31 @@
         <v>0</v>
       </c>
       <c r="J297" s="5">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="K297" s="5">
         <v>0</v>
       </c>
       <c r="L297" s="5">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="M297" s="5">
         <v>0</v>
       </c>
       <c r="N297" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O297" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P297" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q297" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R297" s="6">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19248,31 +19200,31 @@
         <v>0</v>
       </c>
       <c r="J298" s="5">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="K298" s="5">
         <v>0</v>
       </c>
       <c r="L298" s="5">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="M298" s="5">
         <v>0</v>
       </c>
       <c r="N298" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O298" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P298" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q298" s="5">
         <v>0</v>
       </c>
       <c r="R298" s="6">
-        <v>134</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19300,31 +19252,31 @@
         <v>0</v>
       </c>
       <c r="J299" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K299" s="5">
         <v>0</v>
       </c>
       <c r="L299" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M299" s="5">
         <v>0</v>
       </c>
       <c r="N299" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O299" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P299" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q299" s="5">
         <v>0</v>
       </c>
       <c r="R299" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19352,13 +19304,13 @@
         <v>0</v>
       </c>
       <c r="J300" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K300" s="5">
         <v>0</v>
       </c>
       <c r="L300" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M300" s="5">
         <v>0</v>
@@ -19376,7 +19328,7 @@
         <v>0</v>
       </c>
       <c r="R300" s="6">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="301" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19404,13 +19356,13 @@
         <v>0</v>
       </c>
       <c r="J301" s="5">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="K301" s="5">
         <v>0</v>
       </c>
       <c r="L301" s="5">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="M301" s="5">
         <v>0</v>
@@ -19428,7 +19380,7 @@
         <v>0</v>
       </c>
       <c r="R301" s="6">
-        <v>4</v>
+        <v>238</v>
       </c>
     </row>
     <row r="302" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19456,13 +19408,13 @@
         <v>0</v>
       </c>
       <c r="J302" s="5">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="K302" s="5">
         <v>0</v>
       </c>
       <c r="L302" s="5">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="M302" s="5">
         <v>0</v>
@@ -19480,10 +19432,10 @@
         <v>0</v>
       </c>
       <c r="R302" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="303" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>624</v>
       </c>
@@ -19491,7 +19443,7 @@
         <v>625</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="D303" s="5">
         <v>1</v>
@@ -19508,31 +19460,31 @@
         <v>0</v>
       </c>
       <c r="J303" s="5">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="K303" s="5">
         <v>0</v>
       </c>
       <c r="L303" s="5">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="M303" s="5">
         <v>0</v>
       </c>
       <c r="N303" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O303" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P303" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q303" s="5">
         <v>0</v>
       </c>
       <c r="R303" s="6">
-        <v>238</v>
+        <v>269</v>
       </c>
     </row>
     <row r="304" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19560,34 +19512,34 @@
         <v>0</v>
       </c>
       <c r="J304" s="5">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="K304" s="5">
         <v>0</v>
       </c>
       <c r="L304" s="5">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="M304" s="5">
         <v>0</v>
       </c>
       <c r="N304" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O304" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P304" s="5">
         <v>0</v>
       </c>
       <c r="Q304" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R304" s="6">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="305" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>628</v>
       </c>
@@ -19595,7 +19547,7 @@
         <v>629</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D305" s="5">
         <v>1</v>
@@ -19612,34 +19564,34 @@
         <v>0</v>
       </c>
       <c r="J305" s="5">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="K305" s="5">
         <v>0</v>
       </c>
       <c r="L305" s="5">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="M305" s="5">
         <v>0</v>
       </c>
       <c r="N305" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O305" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="P305" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q305" s="5">
         <v>0</v>
       </c>
       <c r="R305" s="6">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="306" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>630</v>
       </c>
@@ -19664,31 +19616,31 @@
         <v>0</v>
       </c>
       <c r="J306" s="5">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c r="K306" s="5">
         <v>0</v>
       </c>
       <c r="L306" s="5">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c r="M306" s="5">
         <v>0</v>
       </c>
       <c r="N306" s="5">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="O306" s="5">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="P306" s="5">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="Q306" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R306" s="6">
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19716,31 +19668,31 @@
         <v>0</v>
       </c>
       <c r="J307" s="5">
-        <v>320</v>
+        <v>1</v>
       </c>
       <c r="K307" s="5">
         <v>0</v>
       </c>
       <c r="L307" s="5">
-        <v>320</v>
+        <v>1</v>
       </c>
       <c r="M307" s="5">
         <v>0</v>
       </c>
       <c r="N307" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O307" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P307" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q307" s="5">
         <v>0</v>
       </c>
       <c r="R307" s="6">
-        <v>304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -19768,31 +19720,31 @@
         <v>0</v>
       </c>
       <c r="J308" s="5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K308" s="5">
         <v>0</v>
       </c>
       <c r="L308" s="5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="M308" s="5">
         <v>0</v>
       </c>
       <c r="N308" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="O308" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="P308" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Q308" s="5">
         <v>0</v>
       </c>
       <c r="R308" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19820,13 +19772,13 @@
         <v>0</v>
       </c>
       <c r="J309" s="5">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="K309" s="5">
         <v>0</v>
       </c>
       <c r="L309" s="5">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="M309" s="5">
         <v>0</v>
@@ -19844,10 +19796,10 @@
         <v>0</v>
       </c>
       <c r="R309" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>638</v>
       </c>
@@ -19872,34 +19824,34 @@
         <v>0</v>
       </c>
       <c r="J310" s="5">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="K310" s="5">
         <v>0</v>
       </c>
       <c r="L310" s="5">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="M310" s="5">
         <v>0</v>
       </c>
       <c r="N310" s="5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O310" s="5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P310" s="5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q310" s="5">
         <v>0</v>
       </c>
       <c r="R310" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>640</v>
       </c>
@@ -19924,13 +19876,13 @@
         <v>0</v>
       </c>
       <c r="J311" s="5">
-        <v>37</v>
+        <v>595</v>
       </c>
       <c r="K311" s="5">
         <v>0</v>
       </c>
       <c r="L311" s="5">
-        <v>37</v>
+        <v>595</v>
       </c>
       <c r="M311" s="5">
         <v>0</v>
@@ -19948,10 +19900,10 @@
         <v>0</v>
       </c>
       <c r="R311" s="6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="312" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>642</v>
       </c>
@@ -19976,31 +19928,31 @@
         <v>0</v>
       </c>
       <c r="J312" s="5">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="K312" s="5">
         <v>0</v>
       </c>
       <c r="L312" s="5">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="M312" s="5">
         <v>0</v>
       </c>
       <c r="N312" s="5">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="O312" s="5">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P312" s="5">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q312" s="5">
         <v>0</v>
       </c>
       <c r="R312" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -20028,31 +19980,31 @@
         <v>0</v>
       </c>
       <c r="J313" s="5">
-        <v>6</v>
+        <v>385</v>
       </c>
       <c r="K313" s="5">
         <v>0</v>
       </c>
       <c r="L313" s="5">
-        <v>6</v>
+        <v>385</v>
       </c>
       <c r="M313" s="5">
         <v>0</v>
       </c>
       <c r="N313" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O313" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P313" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q313" s="5">
         <v>0</v>
       </c>
       <c r="R313" s="6">
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="314" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -20080,31 +20032,31 @@
         <v>0</v>
       </c>
       <c r="J314" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K314" s="5">
         <v>0</v>
       </c>
       <c r="L314" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M314" s="5">
         <v>0</v>
       </c>
       <c r="N314" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O314" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P314" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q314" s="5">
         <v>0</v>
       </c>
       <c r="R314" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -20132,13 +20084,13 @@
         <v>0</v>
       </c>
       <c r="J315" s="5">
-        <v>595</v>
+        <v>11</v>
       </c>
       <c r="K315" s="5">
         <v>0</v>
       </c>
       <c r="L315" s="5">
-        <v>595</v>
+        <v>11</v>
       </c>
       <c r="M315" s="5">
         <v>0</v>
@@ -20156,7 +20108,7 @@
         <v>0</v>
       </c>
       <c r="R315" s="6">
-        <v>595</v>
+        <v>11</v>
       </c>
     </row>
     <row r="316" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -20236,13 +20188,13 @@
         <v>0</v>
       </c>
       <c r="J317" s="5">
-        <v>385</v>
+        <v>32</v>
       </c>
       <c r="K317" s="5">
         <v>0</v>
       </c>
       <c r="L317" s="5">
-        <v>385</v>
+        <v>32</v>
       </c>
       <c r="M317" s="5">
         <v>0</v>
@@ -20260,7 +20212,7 @@
         <v>0</v>
       </c>
       <c r="R317" s="6">
-        <v>385</v>
+        <v>32</v>
       </c>
     </row>
     <row r="318" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -20288,13 +20240,13 @@
         <v>0</v>
       </c>
       <c r="J318" s="5">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="K318" s="5">
         <v>0</v>
       </c>
       <c r="L318" s="5">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="M318" s="5">
         <v>0</v>
@@ -20312,7 +20264,7 @@
         <v>0</v>
       </c>
       <c r="R318" s="6">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="319" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -20340,13 +20292,13 @@
         <v>0</v>
       </c>
       <c r="J319" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K319" s="5">
         <v>0</v>
       </c>
       <c r="L319" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M319" s="5">
         <v>0</v>
@@ -20364,7 +20316,7 @@
         <v>0</v>
       </c>
       <c r="R319" s="6">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -20392,13 +20344,13 @@
         <v>0</v>
       </c>
       <c r="J320" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K320" s="5">
         <v>0</v>
       </c>
       <c r="L320" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M320" s="5">
         <v>0</v>
@@ -20416,7 +20368,7 @@
         <v>0</v>
       </c>
       <c r="R320" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="321" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -20462,10 +20414,10 @@
         <v>14</v>
       </c>
       <c r="P321" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q321" s="5">
         <v>14</v>
-      </c>
-      <c r="Q321" s="5">
-        <v>0</v>
       </c>
       <c r="R321" s="6">
         <v>0</v>
@@ -20496,13 +20448,13 @@
         <v>0</v>
       </c>
       <c r="J322" s="5">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="K322" s="5">
         <v>0</v>
       </c>
       <c r="L322" s="5">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M322" s="5">
         <v>0</v>
@@ -20520,7 +20472,7 @@
         <v>0</v>
       </c>
       <c r="R322" s="6">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -20548,31 +20500,31 @@
         <v>0</v>
       </c>
       <c r="J323" s="5">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="K323" s="5">
         <v>0</v>
       </c>
       <c r="L323" s="5">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="M323" s="5">
         <v>0</v>
       </c>
       <c r="N323" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O323" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P323" s="5">
         <v>0</v>
       </c>
       <c r="Q323" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R323" s="6">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -20600,31 +20552,31 @@
         <v>0</v>
       </c>
       <c r="J324" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K324" s="5">
         <v>0</v>
       </c>
       <c r="L324" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M324" s="5">
         <v>0</v>
       </c>
       <c r="N324" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O324" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P324" s="5">
         <v>0</v>
       </c>
       <c r="Q324" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R324" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -20652,31 +20604,31 @@
         <v>0</v>
       </c>
       <c r="J325" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K325" s="5">
         <v>0</v>
       </c>
       <c r="L325" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M325" s="5">
         <v>0</v>
       </c>
       <c r="N325" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O325" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P325" s="5">
         <v>0</v>
       </c>
       <c r="Q325" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R325" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -20704,31 +20656,31 @@
         <v>0</v>
       </c>
       <c r="J326" s="5">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K326" s="5">
         <v>0</v>
       </c>
       <c r="L326" s="5">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="M326" s="5">
         <v>0</v>
       </c>
       <c r="N326" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O326" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P326" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q326" s="5">
         <v>0</v>
       </c>
       <c r="R326" s="6">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="327" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -20756,31 +20708,31 @@
         <v>0</v>
       </c>
       <c r="J327" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K327" s="5">
         <v>0</v>
       </c>
       <c r="L327" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M327" s="5">
         <v>0</v>
       </c>
       <c r="N327" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O327" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P327" s="5">
         <v>0</v>
       </c>
       <c r="Q327" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R327" s="6">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -20808,13 +20760,13 @@
         <v>0</v>
       </c>
       <c r="J328" s="5">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K328" s="5">
         <v>0</v>
       </c>
       <c r="L328" s="5">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M328" s="5">
         <v>0</v>
@@ -20832,7 +20784,7 @@
         <v>0</v>
       </c>
       <c r="R328" s="6">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="329" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -20860,31 +20812,31 @@
         <v>0</v>
       </c>
       <c r="J329" s="5">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="K329" s="5">
         <v>0</v>
       </c>
       <c r="L329" s="5">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="M329" s="5">
         <v>0</v>
       </c>
       <c r="N329" s="5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O329" s="5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P329" s="5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q329" s="5">
         <v>0</v>
       </c>
       <c r="R329" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -20912,28 +20864,28 @@
         <v>0</v>
       </c>
       <c r="J330" s="5">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="K330" s="5">
         <v>0</v>
       </c>
       <c r="L330" s="5">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="M330" s="5">
         <v>0</v>
       </c>
       <c r="N330" s="5">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="O330" s="5">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="P330" s="5">
         <v>0</v>
       </c>
       <c r="Q330" s="5">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="R330" s="6">
         <v>0</v>
@@ -20964,31 +20916,31 @@
         <v>0</v>
       </c>
       <c r="J331" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K331" s="5">
         <v>0</v>
       </c>
       <c r="L331" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M331" s="5">
         <v>0</v>
       </c>
       <c r="N331" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O331" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P331" s="5">
         <v>0</v>
       </c>
       <c r="Q331" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R331" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -21016,31 +20968,31 @@
         <v>0</v>
       </c>
       <c r="J332" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K332" s="5">
         <v>0</v>
       </c>
       <c r="L332" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M332" s="5">
         <v>0</v>
       </c>
       <c r="N332" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O332" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P332" s="5">
         <v>0</v>
       </c>
       <c r="Q332" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R332" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="333" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -21068,31 +21020,31 @@
         <v>0</v>
       </c>
       <c r="J333" s="5">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K333" s="5">
         <v>0</v>
       </c>
       <c r="L333" s="5">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="M333" s="5">
         <v>0</v>
       </c>
       <c r="N333" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O333" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P333" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q333" s="5">
         <v>0</v>
       </c>
       <c r="R333" s="6">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="334" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -21120,31 +21072,31 @@
         <v>0</v>
       </c>
       <c r="J334" s="5">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="K334" s="5">
         <v>0</v>
       </c>
       <c r="L334" s="5">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="M334" s="5">
         <v>0</v>
       </c>
       <c r="N334" s="5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O334" s="5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P334" s="5">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="Q334" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R334" s="6">
-        <v>3</v>
+        <v>770</v>
       </c>
     </row>
     <row r="335" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -21172,13 +21124,13 @@
         <v>0</v>
       </c>
       <c r="J335" s="5">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="K335" s="5">
         <v>0</v>
       </c>
       <c r="L335" s="5">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="M335" s="5">
         <v>0</v>
@@ -21196,7 +21148,7 @@
         <v>0</v>
       </c>
       <c r="R335" s="6">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="336" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -21224,13 +21176,13 @@
         <v>0</v>
       </c>
       <c r="J336" s="5">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="K336" s="5">
         <v>0</v>
       </c>
       <c r="L336" s="5">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="M336" s="5">
         <v>0</v>
@@ -21248,7 +21200,7 @@
         <v>0</v>
       </c>
       <c r="R336" s="6">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="337" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -21276,13 +21228,13 @@
         <v>0</v>
       </c>
       <c r="J337" s="5">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="K337" s="5">
         <v>0</v>
       </c>
       <c r="L337" s="5">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="M337" s="5">
         <v>0</v>
@@ -21300,7 +21252,7 @@
         <v>0</v>
       </c>
       <c r="R337" s="6">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -21328,13 +21280,13 @@
         <v>0</v>
       </c>
       <c r="J338" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K338" s="5">
         <v>0</v>
       </c>
       <c r="L338" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M338" s="5">
         <v>0</v>
@@ -21352,7 +21304,7 @@
         <v>0</v>
       </c>
       <c r="R338" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -21380,13 +21332,13 @@
         <v>0</v>
       </c>
       <c r="J339" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K339" s="5">
         <v>0</v>
       </c>
       <c r="L339" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M339" s="5">
         <v>0</v>
@@ -21404,7 +21356,7 @@
         <v>0</v>
       </c>
       <c r="R339" s="6">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -21432,13 +21384,13 @@
         <v>0</v>
       </c>
       <c r="J340" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K340" s="5">
         <v>0</v>
       </c>
       <c r="L340" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M340" s="5">
         <v>0</v>
@@ -21456,7 +21408,7 @@
         <v>0</v>
       </c>
       <c r="R340" s="6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -21484,31 +21436,31 @@
         <v>0</v>
       </c>
       <c r="J341" s="5">
-        <v>853</v>
+        <v>28</v>
       </c>
       <c r="K341" s="5">
         <v>0</v>
       </c>
       <c r="L341" s="5">
-        <v>853</v>
+        <v>28</v>
       </c>
       <c r="M341" s="5">
         <v>0</v>
       </c>
       <c r="N341" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="O341" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="P341" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Q341" s="5">
         <v>0</v>
       </c>
       <c r="R341" s="6">
-        <v>783</v>
+        <v>28</v>
       </c>
     </row>
     <row r="342" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -21536,31 +21488,31 @@
         <v>0</v>
       </c>
       <c r="J342" s="5">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="K342" s="5">
         <v>0</v>
       </c>
       <c r="L342" s="5">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="M342" s="5">
         <v>0</v>
       </c>
       <c r="N342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P342" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q342" s="5">
         <v>0</v>
       </c>
       <c r="R342" s="6">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -21588,13 +21540,13 @@
         <v>0</v>
       </c>
       <c r="J343" s="5">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="K343" s="5">
         <v>0</v>
       </c>
       <c r="L343" s="5">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="M343" s="5">
         <v>0</v>
@@ -21612,7 +21564,7 @@
         <v>0</v>
       </c>
       <c r="R343" s="6">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -21640,13 +21592,13 @@
         <v>0</v>
       </c>
       <c r="J344" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K344" s="5">
         <v>0</v>
       </c>
       <c r="L344" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M344" s="5">
         <v>0</v>
@@ -21664,7 +21616,7 @@
         <v>0</v>
       </c>
       <c r="R344" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -21692,13 +21644,13 @@
         <v>0</v>
       </c>
       <c r="J345" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K345" s="5">
         <v>0</v>
       </c>
       <c r="L345" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M345" s="5">
         <v>0</v>
@@ -21716,7 +21668,7 @@
         <v>0</v>
       </c>
       <c r="R345" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -21796,13 +21748,13 @@
         <v>0</v>
       </c>
       <c r="J347" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K347" s="5">
         <v>0</v>
       </c>
       <c r="L347" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M347" s="5">
         <v>0</v>
@@ -21820,10 +21772,10 @@
         <v>0</v>
       </c>
       <c r="R347" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="348" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>714</v>
       </c>
@@ -21848,13 +21800,13 @@
         <v>0</v>
       </c>
       <c r="J348" s="5">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="K348" s="5">
         <v>0</v>
       </c>
       <c r="L348" s="5">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="M348" s="5">
         <v>0</v>
@@ -21872,10 +21824,10 @@
         <v>0</v>
       </c>
       <c r="R348" s="6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="349" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
         <v>716</v>
       </c>
@@ -21900,34 +21852,34 @@
         <v>0</v>
       </c>
       <c r="J349" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K349" s="5">
         <v>0</v>
       </c>
       <c r="L349" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M349" s="5">
         <v>0</v>
       </c>
       <c r="N349" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O349" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P349" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q349" s="5">
         <v>0</v>
       </c>
       <c r="R349" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
         <v>718</v>
       </c>
@@ -21952,13 +21904,13 @@
         <v>0</v>
       </c>
       <c r="J350" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K350" s="5">
         <v>0</v>
       </c>
       <c r="L350" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M350" s="5">
         <v>0</v>
@@ -21976,7 +21928,7 @@
         <v>0</v>
       </c>
       <c r="R350" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="351" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -22004,13 +21956,13 @@
         <v>0</v>
       </c>
       <c r="J351" s="5">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K351" s="5">
         <v>0</v>
       </c>
       <c r="L351" s="5">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="M351" s="5">
         <v>0</v>
@@ -22028,10 +21980,10 @@
         <v>0</v>
       </c>
       <c r="R351" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="352" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="352" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>722</v>
       </c>
@@ -22056,13 +22008,13 @@
         <v>0</v>
       </c>
       <c r="J352" s="5">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="K352" s="5">
         <v>0</v>
       </c>
       <c r="L352" s="5">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="M352" s="5">
         <v>0</v>
@@ -22080,10 +22032,10 @@
         <v>0</v>
       </c>
       <c r="R352" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="353" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="353" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>724</v>
       </c>
@@ -22108,13 +22060,13 @@
         <v>0</v>
       </c>
       <c r="J353" s="5">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="K353" s="5">
         <v>0</v>
       </c>
       <c r="L353" s="5">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M353" s="5">
         <v>0</v>
@@ -22132,10 +22084,10 @@
         <v>0</v>
       </c>
       <c r="R353" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="354" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="354" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>726</v>
       </c>
@@ -22160,13 +22112,13 @@
         <v>0</v>
       </c>
       <c r="J354" s="5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K354" s="5">
         <v>0</v>
       </c>
       <c r="L354" s="5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M354" s="5">
         <v>0</v>
@@ -22184,7 +22136,7 @@
         <v>0</v>
       </c>
       <c r="R354" s="6">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="355" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22212,13 +22164,13 @@
         <v>0</v>
       </c>
       <c r="J355" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K355" s="5">
         <v>0</v>
       </c>
       <c r="L355" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M355" s="5">
         <v>0</v>
@@ -22236,7 +22188,7 @@
         <v>0</v>
       </c>
       <c r="R355" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="356" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22264,13 +22216,13 @@
         <v>0</v>
       </c>
       <c r="J356" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K356" s="5">
         <v>0</v>
       </c>
       <c r="L356" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M356" s="5">
         <v>0</v>
@@ -22288,7 +22240,7 @@
         <v>0</v>
       </c>
       <c r="R356" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22316,13 +22268,13 @@
         <v>0</v>
       </c>
       <c r="J357" s="5">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="K357" s="5">
         <v>0</v>
       </c>
       <c r="L357" s="5">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="M357" s="5">
         <v>0</v>
@@ -22340,10 +22292,10 @@
         <v>0</v>
       </c>
       <c r="R357" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="358" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="358" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
         <v>734</v>
       </c>
@@ -22368,13 +22320,13 @@
         <v>0</v>
       </c>
       <c r="J358" s="5">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="K358" s="5">
         <v>0</v>
       </c>
       <c r="L358" s="5">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M358" s="5">
         <v>0</v>
@@ -22392,7 +22344,7 @@
         <v>0</v>
       </c>
       <c r="R358" s="6">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22420,13 +22372,13 @@
         <v>0</v>
       </c>
       <c r="J359" s="5">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="K359" s="5">
         <v>0</v>
       </c>
       <c r="L359" s="5">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="M359" s="5">
         <v>0</v>
@@ -22444,7 +22396,7 @@
         <v>0</v>
       </c>
       <c r="R359" s="6">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="360" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22472,31 +22424,31 @@
         <v>0</v>
       </c>
       <c r="J360" s="5">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="K360" s="5">
         <v>0</v>
       </c>
       <c r="L360" s="5">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="M360" s="5">
         <v>0</v>
       </c>
       <c r="N360" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="O360" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="P360" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Q360" s="5">
         <v>0</v>
       </c>
       <c r="R360" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22524,13 +22476,13 @@
         <v>0</v>
       </c>
       <c r="J361" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K361" s="5">
         <v>0</v>
       </c>
       <c r="L361" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M361" s="5">
         <v>0</v>
@@ -22548,7 +22500,7 @@
         <v>0</v>
       </c>
       <c r="R361" s="6">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="362" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22576,13 +22528,13 @@
         <v>0</v>
       </c>
       <c r="J362" s="5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K362" s="5">
         <v>0</v>
       </c>
       <c r="L362" s="5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M362" s="5">
         <v>0</v>
@@ -22600,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="R362" s="6">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="363" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22628,13 +22580,13 @@
         <v>0</v>
       </c>
       <c r="J363" s="5">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="K363" s="5">
         <v>0</v>
       </c>
       <c r="L363" s="5">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="M363" s="5">
         <v>0</v>
@@ -22652,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="R363" s="6">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="364" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22680,13 +22632,13 @@
         <v>0</v>
       </c>
       <c r="J364" s="5">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K364" s="5">
         <v>0</v>
       </c>
       <c r="L364" s="5">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="M364" s="5">
         <v>0</v>
@@ -22704,7 +22656,7 @@
         <v>0</v>
       </c>
       <c r="R364" s="6">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="365" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22732,13 +22684,13 @@
         <v>0</v>
       </c>
       <c r="J365" s="5">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="K365" s="5">
         <v>0</v>
       </c>
       <c r="L365" s="5">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="M365" s="5">
         <v>0</v>
@@ -22756,10 +22708,10 @@
         <v>0</v>
       </c>
       <c r="R365" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="366" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="366" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
         <v>750</v>
       </c>
@@ -22784,13 +22736,13 @@
         <v>0</v>
       </c>
       <c r="J366" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K366" s="5">
         <v>0</v>
       </c>
       <c r="L366" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M366" s="5">
         <v>0</v>
@@ -22808,7 +22760,7 @@
         <v>0</v>
       </c>
       <c r="R366" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22836,31 +22788,31 @@
         <v>0</v>
       </c>
       <c r="J367" s="5">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="K367" s="5">
         <v>0</v>
       </c>
       <c r="L367" s="5">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="M367" s="5">
         <v>0</v>
       </c>
       <c r="N367" s="5">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="O367" s="5">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="P367" s="5">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="Q367" s="5">
         <v>0</v>
       </c>
       <c r="R367" s="6">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="368" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22888,31 +22840,31 @@
         <v>0</v>
       </c>
       <c r="J368" s="5">
-        <v>2</v>
+        <v>392</v>
       </c>
       <c r="K368" s="5">
         <v>0</v>
       </c>
       <c r="L368" s="5">
-        <v>2</v>
+        <v>392</v>
       </c>
       <c r="M368" s="5">
         <v>0</v>
       </c>
       <c r="N368" s="5">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="O368" s="5">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="P368" s="5">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="Q368" s="5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R368" s="6">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="369" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22940,13 +22892,13 @@
         <v>0</v>
       </c>
       <c r="J369" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K369" s="5">
         <v>0</v>
       </c>
       <c r="L369" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M369" s="5">
         <v>0</v>
@@ -22964,7 +22916,7 @@
         <v>0</v>
       </c>
       <c r="R369" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="370" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22992,13 +22944,13 @@
         <v>0</v>
       </c>
       <c r="J370" s="5">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K370" s="5">
         <v>0</v>
       </c>
       <c r="L370" s="5">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M370" s="5">
         <v>0</v>
@@ -23016,7 +22968,7 @@
         <v>0</v>
       </c>
       <c r="R370" s="6">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="371" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23044,13 +22996,13 @@
         <v>0</v>
       </c>
       <c r="J371" s="5">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="K371" s="5">
         <v>0</v>
       </c>
       <c r="L371" s="5">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="M371" s="5">
         <v>0</v>
@@ -23068,7 +23020,7 @@
         <v>0</v>
       </c>
       <c r="R371" s="6">
-        <v>27</v>
+        <v>119</v>
       </c>
     </row>
     <row r="372" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23096,13 +23048,13 @@
         <v>0</v>
       </c>
       <c r="J372" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K372" s="5">
         <v>0</v>
       </c>
       <c r="L372" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M372" s="5">
         <v>0</v>
@@ -23120,7 +23072,7 @@
         <v>0</v>
       </c>
       <c r="R372" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23148,13 +23100,13 @@
         <v>0</v>
       </c>
       <c r="J373" s="5">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K373" s="5">
         <v>0</v>
       </c>
       <c r="L373" s="5">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="M373" s="5">
         <v>0</v>
@@ -23172,10 +23124,10 @@
         <v>0</v>
       </c>
       <c r="R373" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="374" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
         <v>766</v>
       </c>
@@ -23200,13 +23152,13 @@
         <v>0</v>
       </c>
       <c r="J374" s="5">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K374" s="5">
         <v>0</v>
       </c>
       <c r="L374" s="5">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="M374" s="5">
         <v>0</v>
@@ -23224,7 +23176,7 @@
         <v>0</v>
       </c>
       <c r="R374" s="6">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="375" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23252,31 +23204,31 @@
         <v>0</v>
       </c>
       <c r="J375" s="5">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K375" s="5">
         <v>0</v>
       </c>
       <c r="L375" s="5">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M375" s="5">
         <v>0</v>
       </c>
       <c r="N375" s="5">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="O375" s="5">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="P375" s="5">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="Q375" s="5">
         <v>0</v>
       </c>
       <c r="R375" s="6">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="376" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23304,31 +23256,31 @@
         <v>0</v>
       </c>
       <c r="J376" s="5">
-        <v>392</v>
+        <v>8</v>
       </c>
       <c r="K376" s="5">
         <v>0</v>
       </c>
       <c r="L376" s="5">
-        <v>392</v>
+        <v>8</v>
       </c>
       <c r="M376" s="5">
         <v>0</v>
       </c>
       <c r="N376" s="5">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="O376" s="5">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="P376" s="5">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="Q376" s="5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R376" s="6">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="377" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23356,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="J377" s="5">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K377" s="5">
         <v>0</v>
       </c>
       <c r="L377" s="5">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M377" s="5">
         <v>0</v>
@@ -23380,7 +23332,7 @@
         <v>0</v>
       </c>
       <c r="R377" s="6">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="378" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23408,13 +23360,13 @@
         <v>0</v>
       </c>
       <c r="J378" s="5">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="K378" s="5">
         <v>0</v>
       </c>
       <c r="L378" s="5">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M378" s="5">
         <v>0</v>
@@ -23432,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R378" s="6">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="379" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23460,13 +23412,13 @@
         <v>0</v>
       </c>
       <c r="J379" s="5">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="K379" s="5">
         <v>0</v>
       </c>
       <c r="L379" s="5">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="M379" s="5">
         <v>0</v>
@@ -23484,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="R379" s="6">
-        <v>119</v>
+        <v>9</v>
       </c>
     </row>
     <row r="380" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23512,31 +23464,31 @@
         <v>0</v>
       </c>
       <c r="J380" s="5">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K380" s="5">
         <v>0</v>
       </c>
       <c r="L380" s="5">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M380" s="5">
         <v>0</v>
       </c>
       <c r="N380" s="5">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="O380" s="5">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="P380" s="5">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="Q380" s="5">
         <v>0</v>
       </c>
       <c r="R380" s="6">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="381" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23564,13 +23516,13 @@
         <v>0</v>
       </c>
       <c r="J381" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K381" s="5">
         <v>0</v>
       </c>
       <c r="L381" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M381" s="5">
         <v>0</v>
@@ -23588,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R381" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="382" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23616,13 +23568,13 @@
         <v>0</v>
       </c>
       <c r="J382" s="5">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K382" s="5">
         <v>0</v>
       </c>
       <c r="L382" s="5">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M382" s="5">
         <v>0</v>
@@ -23640,7 +23592,7 @@
         <v>0</v>
       </c>
       <c r="R382" s="6">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="383" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23720,13 +23672,13 @@
         <v>0</v>
       </c>
       <c r="J384" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K384" s="5">
         <v>0</v>
       </c>
       <c r="L384" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M384" s="5">
         <v>0</v>
@@ -23744,7 +23696,7 @@
         <v>0</v>
       </c>
       <c r="R384" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23772,13 +23724,13 @@
         <v>0</v>
       </c>
       <c r="J385" s="5">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K385" s="5">
         <v>0</v>
       </c>
       <c r="L385" s="5">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="M385" s="5">
         <v>0</v>
@@ -23796,7 +23748,7 @@
         <v>0</v>
       </c>
       <c r="R385" s="6">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23824,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="J386" s="5">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K386" s="5">
         <v>0</v>
       </c>
       <c r="L386" s="5">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M386" s="5">
         <v>0</v>
@@ -23848,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="R386" s="6">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="387" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23876,13 +23828,13 @@
         <v>0</v>
       </c>
       <c r="J387" s="5">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="K387" s="5">
         <v>0</v>
       </c>
       <c r="L387" s="5">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="M387" s="5">
         <v>0</v>
@@ -23900,7 +23852,7 @@
         <v>0</v>
       </c>
       <c r="R387" s="6">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="388" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23928,31 +23880,31 @@
         <v>0</v>
       </c>
       <c r="J388" s="5">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="K388" s="5">
         <v>0</v>
       </c>
       <c r="L388" s="5">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="M388" s="5">
         <v>0</v>
       </c>
       <c r="N388" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O388" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P388" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q388" s="5">
         <v>0</v>
       </c>
       <c r="R388" s="6">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="389" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23980,13 +23932,13 @@
         <v>0</v>
       </c>
       <c r="J389" s="5">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="K389" s="5">
         <v>0</v>
       </c>
       <c r="L389" s="5">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="M389" s="5">
         <v>0</v>
@@ -24004,10 +23956,10 @@
         <v>0</v>
       </c>
       <c r="R389" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="390" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="390" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
         <v>798</v>
       </c>
@@ -24032,13 +23984,13 @@
         <v>0</v>
       </c>
       <c r="J390" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K390" s="5">
         <v>0</v>
       </c>
       <c r="L390" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M390" s="5">
         <v>0</v>
@@ -24056,7 +24008,7 @@
         <v>0</v>
       </c>
       <c r="R390" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="391" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24084,13 +24036,13 @@
         <v>0</v>
       </c>
       <c r="J391" s="5">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="K391" s="5">
         <v>0</v>
       </c>
       <c r="L391" s="5">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M391" s="5">
         <v>0</v>
@@ -24108,7 +24060,7 @@
         <v>0</v>
       </c>
       <c r="R391" s="6">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="392" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24136,31 +24088,31 @@
         <v>0</v>
       </c>
       <c r="J392" s="5">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="K392" s="5">
         <v>0</v>
       </c>
       <c r="L392" s="5">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="M392" s="5">
         <v>0</v>
       </c>
       <c r="N392" s="5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O392" s="5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="P392" s="5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q392" s="5">
         <v>0</v>
       </c>
       <c r="R392" s="6">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="393" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24188,34 +24140,34 @@
         <v>0</v>
       </c>
       <c r="J393" s="5">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="K393" s="5">
         <v>0</v>
       </c>
       <c r="L393" s="5">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="M393" s="5">
         <v>0</v>
       </c>
       <c r="N393" s="5">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O393" s="5">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="P393" s="5">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q393" s="5">
         <v>0</v>
       </c>
       <c r="R393" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="394" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
         <v>806</v>
       </c>
@@ -24240,13 +24192,13 @@
         <v>0</v>
       </c>
       <c r="J394" s="5">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="K394" s="5">
         <v>0</v>
       </c>
       <c r="L394" s="5">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="M394" s="5">
         <v>0</v>
@@ -24264,10 +24216,10 @@
         <v>0</v>
       </c>
       <c r="R394" s="6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="395" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
         <v>808</v>
       </c>
@@ -24292,13 +24244,13 @@
         <v>0</v>
       </c>
       <c r="J395" s="5">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="K395" s="5">
         <v>0</v>
       </c>
       <c r="L395" s="5">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="M395" s="5">
         <v>0</v>
@@ -24316,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="R395" s="6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="396" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
         <v>810</v>
       </c>
@@ -24344,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="J396" s="5">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K396" s="5">
         <v>0</v>
       </c>
       <c r="L396" s="5">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M396" s="5">
         <v>0</v>
@@ -24368,10 +24320,10 @@
         <v>0</v>
       </c>
       <c r="R396" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="397" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
         <v>812</v>
       </c>
@@ -24396,13 +24348,13 @@
         <v>0</v>
       </c>
       <c r="J397" s="5">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="K397" s="5">
         <v>0</v>
       </c>
       <c r="L397" s="5">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="M397" s="5">
         <v>0</v>
@@ -24420,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="R397" s="6">
-        <v>158</v>
+        <v>4</v>
       </c>
     </row>
     <row r="398" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -24448,13 +24400,13 @@
         <v>0</v>
       </c>
       <c r="J398" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K398" s="5">
         <v>0</v>
       </c>
       <c r="L398" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M398" s="5">
         <v>0</v>
@@ -24472,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="R398" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="399" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>816</v>
       </c>
@@ -24500,13 +24452,13 @@
         <v>0</v>
       </c>
       <c r="J399" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K399" s="5">
         <v>0</v>
       </c>
       <c r="L399" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M399" s="5">
         <v>0</v>
@@ -24524,10 +24476,10 @@
         <v>0</v>
       </c>
       <c r="R399" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="400" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="400" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
         <v>818</v>
       </c>
@@ -24552,34 +24504,34 @@
         <v>0</v>
       </c>
       <c r="J400" s="5">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K400" s="5">
         <v>0</v>
       </c>
       <c r="L400" s="5">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M400" s="5">
         <v>0</v>
       </c>
       <c r="N400" s="5">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O400" s="5">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="P400" s="5">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Q400" s="5">
         <v>0</v>
       </c>
       <c r="R400" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="401" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="401" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
         <v>820</v>
       </c>
@@ -24604,31 +24556,31 @@
         <v>0</v>
       </c>
       <c r="J401" s="5">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K401" s="5">
         <v>0</v>
       </c>
       <c r="L401" s="5">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M401" s="5">
         <v>0</v>
       </c>
       <c r="N401" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="O401" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="P401" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Q401" s="5">
         <v>0</v>
       </c>
       <c r="R401" s="6">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="402" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -24708,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="J403" s="5">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K403" s="5">
         <v>0</v>
       </c>
       <c r="L403" s="5">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M403" s="5">
         <v>0</v>
@@ -24732,7 +24684,7 @@
         <v>0</v>
       </c>
       <c r="R403" s="6">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="404" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -24760,13 +24712,13 @@
         <v>0</v>
       </c>
       <c r="J404" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K404" s="5">
         <v>0</v>
       </c>
       <c r="L404" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M404" s="5">
         <v>0</v>
@@ -24784,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="R404" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -24812,13 +24764,13 @@
         <v>0</v>
       </c>
       <c r="J405" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K405" s="5">
         <v>0</v>
       </c>
       <c r="L405" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M405" s="5">
         <v>0</v>
@@ -24836,7 +24788,7 @@
         <v>0</v>
       </c>
       <c r="R405" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -24864,13 +24816,13 @@
         <v>0</v>
       </c>
       <c r="J406" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K406" s="5">
         <v>0</v>
       </c>
       <c r="L406" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M406" s="5">
         <v>0</v>
@@ -24888,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="R406" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -24916,13 +24868,13 @@
         <v>0</v>
       </c>
       <c r="J407" s="5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K407" s="5">
         <v>0</v>
       </c>
       <c r="L407" s="5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M407" s="5">
         <v>0</v>
@@ -24940,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="R407" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="408" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
         <v>834</v>
       </c>
@@ -24968,13 +24920,13 @@
         <v>0</v>
       </c>
       <c r="J408" s="5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K408" s="5">
         <v>0</v>
       </c>
       <c r="L408" s="5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M408" s="5">
         <v>0</v>
@@ -24992,10 +24944,10 @@
         <v>0</v>
       </c>
       <c r="R408" s="6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="409" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="409" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
         <v>836</v>
       </c>
@@ -25020,13 +24972,13 @@
         <v>0</v>
       </c>
       <c r="J409" s="5">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="K409" s="5">
         <v>0</v>
       </c>
       <c r="L409" s="5">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M409" s="5">
         <v>0</v>
@@ -25044,10 +24996,10 @@
         <v>0</v>
       </c>
       <c r="R409" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="410" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="410" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
         <v>838</v>
       </c>
@@ -25072,31 +25024,31 @@
         <v>0</v>
       </c>
       <c r="J410" s="5">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="K410" s="5">
         <v>0</v>
       </c>
       <c r="L410" s="5">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="M410" s="5">
         <v>0</v>
       </c>
       <c r="N410" s="5">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O410" s="5">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="P410" s="5">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q410" s="5">
         <v>0</v>
       </c>
       <c r="R410" s="6">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="411" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -25124,13 +25076,13 @@
         <v>0</v>
       </c>
       <c r="J411" s="5">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K411" s="5">
         <v>0</v>
       </c>
       <c r="L411" s="5">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M411" s="5">
         <v>0</v>
@@ -25148,10 +25100,10 @@
         <v>0</v>
       </c>
       <c r="R411" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="412" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="412" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
         <v>842</v>
       </c>
@@ -25176,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="J412" s="5">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="K412" s="5">
         <v>0</v>
       </c>
       <c r="L412" s="5">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="M412" s="5">
         <v>0</v>
@@ -25200,10 +25152,10 @@
         <v>0</v>
       </c>
       <c r="R412" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="413" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="4" t="s">
         <v>844</v>
       </c>
@@ -25228,13 +25180,13 @@
         <v>0</v>
       </c>
       <c r="J413" s="5">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="K413" s="5">
         <v>0</v>
       </c>
       <c r="L413" s="5">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="M413" s="5">
         <v>0</v>
@@ -25252,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="R413" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="414" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="414" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="4" t="s">
         <v>846</v>
       </c>
@@ -25280,13 +25232,13 @@
         <v>0</v>
       </c>
       <c r="J414" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K414" s="5">
         <v>0</v>
       </c>
       <c r="L414" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M414" s="5">
         <v>0</v>
@@ -25304,10 +25256,10 @@
         <v>0</v>
       </c>
       <c r="R414" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="4" t="s">
         <v>848</v>
       </c>
@@ -25332,13 +25284,13 @@
         <v>0</v>
       </c>
       <c r="J415" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K415" s="5">
         <v>0</v>
       </c>
       <c r="L415" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M415" s="5">
         <v>0</v>
@@ -25356,7 +25308,7 @@
         <v>0</v>
       </c>
       <c r="R415" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="416" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25384,13 +25336,13 @@
         <v>0</v>
       </c>
       <c r="J416" s="5">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K416" s="5">
         <v>0</v>
       </c>
       <c r="L416" s="5">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="M416" s="5">
         <v>0</v>
@@ -25408,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="R416" s="6">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25436,13 +25388,13 @@
         <v>0</v>
       </c>
       <c r="J417" s="5">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K417" s="5">
         <v>0</v>
       </c>
       <c r="L417" s="5">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M417" s="5">
         <v>0</v>
@@ -25460,7 +25412,7 @@
         <v>0</v>
       </c>
       <c r="R417" s="6">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="418" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25488,31 +25440,31 @@
         <v>0</v>
       </c>
       <c r="J418" s="5">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="K418" s="5">
         <v>0</v>
       </c>
       <c r="L418" s="5">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="M418" s="5">
         <v>0</v>
       </c>
       <c r="N418" s="5">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="O418" s="5">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="P418" s="5">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Q418" s="5">
         <v>0</v>
       </c>
       <c r="R418" s="6">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="419" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -25540,13 +25492,13 @@
         <v>0</v>
       </c>
       <c r="J419" s="5">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="K419" s="5">
         <v>0</v>
       </c>
       <c r="L419" s="5">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="M419" s="5">
         <v>0</v>
@@ -25564,10 +25516,10 @@
         <v>0</v>
       </c>
       <c r="R419" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="420" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="420" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="4" t="s">
         <v>858</v>
       </c>
@@ -25592,31 +25544,31 @@
         <v>0</v>
       </c>
       <c r="J420" s="5">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="K420" s="5">
         <v>0</v>
       </c>
       <c r="L420" s="5">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="M420" s="5">
         <v>0</v>
       </c>
       <c r="N420" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O420" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P420" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q420" s="5">
         <v>0</v>
       </c>
       <c r="R420" s="6">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25644,31 +25596,31 @@
         <v>0</v>
       </c>
       <c r="J421" s="5">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="K421" s="5">
         <v>0</v>
       </c>
       <c r="L421" s="5">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="M421" s="5">
         <v>0</v>
       </c>
       <c r="N421" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O421" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P421" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q421" s="5">
         <v>0</v>
       </c>
       <c r="R421" s="6">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="422" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25696,13 +25648,13 @@
         <v>0</v>
       </c>
       <c r="J422" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K422" s="5">
         <v>0</v>
       </c>
       <c r="L422" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M422" s="5">
         <v>0</v>
@@ -25720,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="R422" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="423" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25748,13 +25700,13 @@
         <v>0</v>
       </c>
       <c r="J423" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K423" s="5">
         <v>0</v>
       </c>
       <c r="L423" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M423" s="5">
         <v>0</v>
@@ -25772,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="R423" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="424" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25800,13 +25752,13 @@
         <v>0</v>
       </c>
       <c r="J424" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K424" s="5">
         <v>0</v>
       </c>
       <c r="L424" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M424" s="5">
         <v>0</v>
@@ -25824,7 +25776,7 @@
         <v>0</v>
       </c>
       <c r="R424" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25852,34 +25804,34 @@
         <v>0</v>
       </c>
       <c r="J425" s="5">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K425" s="5">
         <v>0</v>
       </c>
       <c r="L425" s="5">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="M425" s="5">
         <v>0</v>
       </c>
       <c r="N425" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O425" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P425" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q425" s="5">
         <v>0</v>
       </c>
       <c r="R425" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="426" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
         <v>870</v>
       </c>
@@ -25904,13 +25856,13 @@
         <v>0</v>
       </c>
       <c r="J426" s="5">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="K426" s="5">
         <v>0</v>
       </c>
       <c r="L426" s="5">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="M426" s="5">
         <v>0</v>
@@ -25928,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="R426" s="6">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="427" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -25956,13 +25908,13 @@
         <v>0</v>
       </c>
       <c r="J427" s="5">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="K427" s="5">
         <v>0</v>
       </c>
       <c r="L427" s="5">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="M427" s="5">
         <v>0</v>
@@ -25980,7 +25932,7 @@
         <v>0</v>
       </c>
       <c r="R427" s="6">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="428" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -26008,34 +25960,34 @@
         <v>0</v>
       </c>
       <c r="J428" s="5">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="K428" s="5">
         <v>0</v>
       </c>
       <c r="L428" s="5">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="M428" s="5">
         <v>0</v>
       </c>
       <c r="N428" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O428" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P428" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q428" s="5">
         <v>0</v>
       </c>
       <c r="R428" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="429" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="4" t="s">
         <v>876</v>
       </c>
@@ -26060,34 +26012,34 @@
         <v>0</v>
       </c>
       <c r="J429" s="5">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K429" s="5">
         <v>0</v>
       </c>
       <c r="L429" s="5">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M429" s="5">
         <v>0</v>
       </c>
       <c r="N429" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O429" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P429" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q429" s="5">
         <v>0</v>
       </c>
       <c r="R429" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="430" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="430" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
         <v>878</v>
       </c>
@@ -26112,13 +26064,13 @@
         <v>0</v>
       </c>
       <c r="J430" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K430" s="5">
         <v>0</v>
       </c>
       <c r="L430" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M430" s="5">
         <v>0</v>
@@ -26136,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="R430" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="431" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
         <v>880</v>
       </c>
@@ -26164,13 +26116,13 @@
         <v>0</v>
       </c>
       <c r="J431" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K431" s="5">
         <v>0</v>
       </c>
       <c r="L431" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M431" s="5">
         <v>0</v>
@@ -26188,10 +26140,10 @@
         <v>0</v>
       </c>
       <c r="R431" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="432" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
         <v>882</v>
       </c>
@@ -26216,13 +26168,13 @@
         <v>0</v>
       </c>
       <c r="J432" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K432" s="5">
         <v>0</v>
       </c>
       <c r="L432" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M432" s="5">
         <v>0</v>
@@ -26240,7 +26192,7 @@
         <v>0</v>
       </c>
       <c r="R432" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="433" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26268,13 +26220,13 @@
         <v>0</v>
       </c>
       <c r="J433" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K433" s="5">
         <v>0</v>
       </c>
       <c r="L433" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M433" s="5">
         <v>0</v>
@@ -26292,10 +26244,10 @@
         <v>0</v>
       </c>
       <c r="R433" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="434" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
         <v>886</v>
       </c>
@@ -26320,13 +26272,13 @@
         <v>0</v>
       </c>
       <c r="J434" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K434" s="5">
         <v>0</v>
       </c>
       <c r="L434" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M434" s="5">
         <v>0</v>
@@ -26344,10 +26296,10 @@
         <v>0</v>
       </c>
       <c r="R434" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="435" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
         <v>888</v>
       </c>
@@ -26372,13 +26324,13 @@
         <v>0</v>
       </c>
       <c r="J435" s="5">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="K435" s="5">
         <v>0</v>
       </c>
       <c r="L435" s="5">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="M435" s="5">
         <v>0</v>
@@ -26396,10 +26348,10 @@
         <v>0</v>
       </c>
       <c r="R435" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="436" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
         <v>890</v>
       </c>
@@ -26424,34 +26376,34 @@
         <v>0</v>
       </c>
       <c r="J436" s="5">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="K436" s="5">
         <v>0</v>
       </c>
       <c r="L436" s="5">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="M436" s="5">
         <v>0</v>
       </c>
       <c r="N436" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O436" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P436" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q436" s="5">
         <v>0</v>
       </c>
       <c r="R436" s="6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="437" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
         <v>892</v>
       </c>
@@ -26476,13 +26428,13 @@
         <v>0</v>
       </c>
       <c r="J437" s="5">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="K437" s="5">
         <v>0</v>
       </c>
       <c r="L437" s="5">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="M437" s="5">
         <v>0</v>
@@ -26500,10 +26452,10 @@
         <v>0</v>
       </c>
       <c r="R437" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="438" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
         <v>894</v>
       </c>
@@ -26528,13 +26480,13 @@
         <v>0</v>
       </c>
       <c r="J438" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K438" s="5">
         <v>0</v>
       </c>
       <c r="L438" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M438" s="5">
         <v>0</v>
@@ -26552,10 +26504,10 @@
         <v>0</v>
       </c>
       <c r="R438" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="439" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
         <v>896</v>
       </c>
@@ -26580,13 +26532,13 @@
         <v>0</v>
       </c>
       <c r="J439" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K439" s="5">
         <v>0</v>
       </c>
       <c r="L439" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M439" s="5">
         <v>0</v>
@@ -26604,10 +26556,10 @@
         <v>0</v>
       </c>
       <c r="R439" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="440" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
         <v>898</v>
       </c>
@@ -26632,13 +26584,13 @@
         <v>0</v>
       </c>
       <c r="J440" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K440" s="5">
         <v>0</v>
       </c>
       <c r="L440" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M440" s="5">
         <v>0</v>
@@ -26656,7 +26608,7 @@
         <v>0</v>
       </c>
       <c r="R440" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="441" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26736,13 +26688,13 @@
         <v>0</v>
       </c>
       <c r="J442" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K442" s="5">
         <v>0</v>
       </c>
       <c r="L442" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M442" s="5">
         <v>0</v>
@@ -26760,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="R442" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="443" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26788,13 +26740,13 @@
         <v>0</v>
       </c>
       <c r="J443" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K443" s="5">
         <v>0</v>
       </c>
       <c r="L443" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M443" s="5">
         <v>0</v>
@@ -26812,7 +26764,7 @@
         <v>0</v>
       </c>
       <c r="R443" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="444" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26840,31 +26792,31 @@
         <v>0</v>
       </c>
       <c r="J444" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K444" s="5">
         <v>0</v>
       </c>
       <c r="L444" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M444" s="5">
         <v>0</v>
       </c>
       <c r="N444" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O444" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P444" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q444" s="5">
         <v>0</v>
       </c>
       <c r="R444" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26892,13 +26844,13 @@
         <v>0</v>
       </c>
       <c r="J445" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K445" s="5">
         <v>0</v>
       </c>
       <c r="L445" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M445" s="5">
         <v>0</v>
@@ -26916,7 +26868,7 @@
         <v>0</v>
       </c>
       <c r="R445" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="446" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26944,13 +26896,13 @@
         <v>0</v>
       </c>
       <c r="J446" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K446" s="5">
         <v>0</v>
       </c>
       <c r="L446" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M446" s="5">
         <v>0</v>
@@ -26968,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="R446" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="447" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26996,13 +26948,13 @@
         <v>0</v>
       </c>
       <c r="J447" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K447" s="5">
         <v>0</v>
       </c>
       <c r="L447" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M447" s="5">
         <v>0</v>
@@ -27020,422 +26972,6 @@
         <v>0</v>
       </c>
       <c r="R447" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A448" s="4" t="s">
-        <v>914</v>
-      </c>
-      <c r="B448" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="C448" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D448" s="5">
-        <v>1</v>
-      </c>
-      <c r="E448" s="4"/>
-      <c r="F448" s="5"/>
-      <c r="G448" s="5">
-        <v>0</v>
-      </c>
-      <c r="H448" s="5">
-        <v>0</v>
-      </c>
-      <c r="I448" s="5">
-        <v>0</v>
-      </c>
-      <c r="J448" s="5">
-        <v>4</v>
-      </c>
-      <c r="K448" s="5">
-        <v>0</v>
-      </c>
-      <c r="L448" s="5">
-        <v>4</v>
-      </c>
-      <c r="M448" s="5">
-        <v>0</v>
-      </c>
-      <c r="N448" s="5">
-        <v>0</v>
-      </c>
-      <c r="O448" s="5">
-        <v>0</v>
-      </c>
-      <c r="P448" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q448" s="5">
-        <v>0</v>
-      </c>
-      <c r="R448" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="449" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A449" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="B449" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="C449" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D449" s="5">
-        <v>1</v>
-      </c>
-      <c r="E449" s="4"/>
-      <c r="F449" s="5"/>
-      <c r="G449" s="5">
-        <v>0</v>
-      </c>
-      <c r="H449" s="5">
-        <v>0</v>
-      </c>
-      <c r="I449" s="5">
-        <v>0</v>
-      </c>
-      <c r="J449" s="5">
-        <v>1</v>
-      </c>
-      <c r="K449" s="5">
-        <v>0</v>
-      </c>
-      <c r="L449" s="5">
-        <v>1</v>
-      </c>
-      <c r="M449" s="5">
-        <v>0</v>
-      </c>
-      <c r="N449" s="5">
-        <v>0</v>
-      </c>
-      <c r="O449" s="5">
-        <v>0</v>
-      </c>
-      <c r="P449" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q449" s="5">
-        <v>0</v>
-      </c>
-      <c r="R449" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="B450" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="C450" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D450" s="5">
-        <v>1</v>
-      </c>
-      <c r="E450" s="4"/>
-      <c r="F450" s="5"/>
-      <c r="G450" s="5">
-        <v>0</v>
-      </c>
-      <c r="H450" s="5">
-        <v>0</v>
-      </c>
-      <c r="I450" s="5">
-        <v>0</v>
-      </c>
-      <c r="J450" s="5">
-        <v>9</v>
-      </c>
-      <c r="K450" s="5">
-        <v>0</v>
-      </c>
-      <c r="L450" s="5">
-        <v>9</v>
-      </c>
-      <c r="M450" s="5">
-        <v>0</v>
-      </c>
-      <c r="N450" s="5">
-        <v>0</v>
-      </c>
-      <c r="O450" s="5">
-        <v>0</v>
-      </c>
-      <c r="P450" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q450" s="5">
-        <v>0</v>
-      </c>
-      <c r="R450" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="451" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A451" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="B451" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="C451" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D451" s="5">
-        <v>1</v>
-      </c>
-      <c r="E451" s="4"/>
-      <c r="F451" s="5"/>
-      <c r="G451" s="5">
-        <v>0</v>
-      </c>
-      <c r="H451" s="5">
-        <v>0</v>
-      </c>
-      <c r="I451" s="5">
-        <v>0</v>
-      </c>
-      <c r="J451" s="5">
-        <v>6</v>
-      </c>
-      <c r="K451" s="5">
-        <v>0</v>
-      </c>
-      <c r="L451" s="5">
-        <v>6</v>
-      </c>
-      <c r="M451" s="5">
-        <v>0</v>
-      </c>
-      <c r="N451" s="5">
-        <v>0</v>
-      </c>
-      <c r="O451" s="5">
-        <v>0</v>
-      </c>
-      <c r="P451" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q451" s="5">
-        <v>0</v>
-      </c>
-      <c r="R451" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="452" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="B452" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="C452" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D452" s="5">
-        <v>1</v>
-      </c>
-      <c r="E452" s="4"/>
-      <c r="F452" s="5"/>
-      <c r="G452" s="5">
-        <v>0</v>
-      </c>
-      <c r="H452" s="5">
-        <v>0</v>
-      </c>
-      <c r="I452" s="5">
-        <v>0</v>
-      </c>
-      <c r="J452" s="5">
-        <v>2</v>
-      </c>
-      <c r="K452" s="5">
-        <v>0</v>
-      </c>
-      <c r="L452" s="5">
-        <v>2</v>
-      </c>
-      <c r="M452" s="5">
-        <v>0</v>
-      </c>
-      <c r="N452" s="5">
-        <v>0</v>
-      </c>
-      <c r="O452" s="5">
-        <v>0</v>
-      </c>
-      <c r="P452" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q452" s="5">
-        <v>0</v>
-      </c>
-      <c r="R452" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="453" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="B453" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="C453" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D453" s="5">
-        <v>1</v>
-      </c>
-      <c r="E453" s="4"/>
-      <c r="F453" s="5"/>
-      <c r="G453" s="5">
-        <v>0</v>
-      </c>
-      <c r="H453" s="5">
-        <v>0</v>
-      </c>
-      <c r="I453" s="5">
-        <v>0</v>
-      </c>
-      <c r="J453" s="5">
-        <v>5</v>
-      </c>
-      <c r="K453" s="5">
-        <v>0</v>
-      </c>
-      <c r="L453" s="5">
-        <v>5</v>
-      </c>
-      <c r="M453" s="5">
-        <v>0</v>
-      </c>
-      <c r="N453" s="5">
-        <v>0</v>
-      </c>
-      <c r="O453" s="5">
-        <v>0</v>
-      </c>
-      <c r="P453" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q453" s="5">
-        <v>0</v>
-      </c>
-      <c r="R453" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="454" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="B454" s="4" t="s">
-        <v>927</v>
-      </c>
-      <c r="C454" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D454" s="5">
-        <v>1</v>
-      </c>
-      <c r="E454" s="4"/>
-      <c r="F454" s="5"/>
-      <c r="G454" s="5">
-        <v>0</v>
-      </c>
-      <c r="H454" s="5">
-        <v>0</v>
-      </c>
-      <c r="I454" s="5">
-        <v>0</v>
-      </c>
-      <c r="J454" s="5">
-        <v>6</v>
-      </c>
-      <c r="K454" s="5">
-        <v>0</v>
-      </c>
-      <c r="L454" s="5">
-        <v>6</v>
-      </c>
-      <c r="M454" s="5">
-        <v>0</v>
-      </c>
-      <c r="N454" s="5">
-        <v>0</v>
-      </c>
-      <c r="O454" s="5">
-        <v>0</v>
-      </c>
-      <c r="P454" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q454" s="5">
-        <v>0</v>
-      </c>
-      <c r="R454" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="455" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A455" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="B455" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="C455" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D455" s="5">
-        <v>1</v>
-      </c>
-      <c r="E455" s="4"/>
-      <c r="F455" s="5"/>
-      <c r="G455" s="5">
-        <v>0</v>
-      </c>
-      <c r="H455" s="5">
-        <v>0</v>
-      </c>
-      <c r="I455" s="5">
-        <v>0</v>
-      </c>
-      <c r="J455" s="5">
-        <v>16</v>
-      </c>
-      <c r="K455" s="5">
-        <v>0</v>
-      </c>
-      <c r="L455" s="5">
-        <v>16</v>
-      </c>
-      <c r="M455" s="5">
-        <v>0</v>
-      </c>
-      <c r="N455" s="5">
-        <v>0</v>
-      </c>
-      <c r="O455" s="5">
-        <v>0</v>
-      </c>
-      <c r="P455" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q455" s="5">
-        <v>0</v>
-      </c>
-      <c r="R455" s="6">
         <v>16</v>
       </c>
     </row>
